--- a/xlsx_files/products.xlsx
+++ b/xlsx_files/products.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
   <si>
     <t>product_id</t>
   </si>
@@ -436,6 +436,9 @@
     <t>J5.188.M</t>
   </si>
   <si>
+    <t>catalog/product/WATCHES/JOWISSA/J5.188.M.jpg</t>
+  </si>
+  <si>
     <t>Jowissa-Facet_Strass-J5.188.M</t>
   </si>
   <si>
@@ -460,6 +463,9 @@
     <t>Rodania Swiss ChicXSEBA 2505520</t>
   </si>
   <si>
+    <t>catalog/product/WATCHES/RODANIA/2505520.jpg</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Κομψό ανδρικό ρολόι από την εταιρία Rodania, Ελβετικής κασκευής, από τη συλλογή Swiss Chic XSEBA, με κωδικό 2505520.&lt;/p&gt;</t>
   </si>
   <si>
@@ -761,6 +767,51 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>τ</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>ι</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ΔΙΑΜΜΕΤΡΟΣ ΚΑΣΑΣ</t>
+  </si>
+  <si>
+    <t>ΠΑΧΟΣ ΚΑΣΑΣ</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>ΚΡΥΣΤΑΛΛΟ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ΚΑΠΑΚΙ</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
   <si>
     <t>filter_group</t>
@@ -1179,14 +1230,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AU14"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="bottomRight" state="frozen" topLeftCell="M2" xSplit="1" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="M1" activeCellId="0" pane="topRight" sqref="M1"/>
       <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="M10" activeCellId="0" pane="bottomRight" sqref="9:10"/>
+      <selection activeCell="M10" activeCellId="1" pane="bottomRight" sqref="50:78 M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -2189,322 +2240,150 @@
       <c r="D9" t="n">
         <v>61</v>
       </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
       <c r="M9" t="s">
         <v>136</v>
       </c>
       <c r="N9" t="s">
         <v>50</v>
       </c>
+      <c r="O9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="n">
         <v>220</v>
       </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="s"/>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+      <c r="Z9" t="s"/>
+      <c r="AA9" t="s"/>
+      <c r="AB9" t="s"/>
+      <c r="AC9" t="s"/>
       <c r="AD9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AE9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ9" t="s">
-        <v>143</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AK9" t="s"/>
+      <c r="AL9" t="s"/>
+      <c r="AM9" t="s"/>
+      <c r="AN9" t="s"/>
+      <c r="AO9" t="s"/>
+      <c r="AP9" t="s"/>
+      <c r="AQ9" t="s"/>
+      <c r="AR9" t="s"/>
+      <c r="AS9" t="s"/>
+      <c r="AT9" t="s"/>
+      <c r="AU9" t="s"/>
     </row>
     <row r="10" spans="1:47">
       <c r="A10" t="n">
         <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10" t="n">
         <v>62</v>
       </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
       <c r="M10" t="s">
         <v>68</v>
       </c>
       <c r="N10" t="s">
         <v>69</v>
       </c>
+      <c r="O10" t="s">
+        <v>146</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="n">
         <v>550</v>
       </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="s"/>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+      <c r="Z10" t="s"/>
+      <c r="AA10" t="s"/>
+      <c r="AB10" t="s"/>
+      <c r="AC10" t="s"/>
       <c r="AD10" t="s">
         <v>73</v>
       </c>
       <c r="AE10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AH10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AI10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47">
-      <c r="A11" t="n">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" t="n">
-        <v>61</v>
-      </c>
-      <c r="M11" t="s">
-        <v>136</v>
-      </c>
-      <c r="N11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>220</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47">
-      <c r="A12" t="n">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" t="n">
-        <v>62</v>
-      </c>
-      <c r="M12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>550</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47">
-      <c r="A13" t="n">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" t="n">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N13" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>220</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK13" t="s"/>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
-      <c r="AQ13" t="s"/>
-      <c r="AR13" t="s"/>
-      <c r="AS13" t="s"/>
-      <c r="AT13" t="s"/>
-      <c r="AU13" t="s"/>
-    </row>
-    <row r="14" spans="1:47">
-      <c r="A14" t="n">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" t="n">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>550</v>
-      </c>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
-      <c r="AM14" t="s"/>
-      <c r="AN14" t="s"/>
-      <c r="AO14" t="s"/>
-      <c r="AP14" t="s"/>
-      <c r="AQ14" t="s"/>
-      <c r="AR14" t="s"/>
-      <c r="AS14" t="s"/>
-      <c r="AT14" t="s"/>
-      <c r="AU14" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="AK10" t="s"/>
+      <c r="AL10" t="s"/>
+      <c r="AM10" t="s"/>
+      <c r="AN10" t="s"/>
+      <c r="AO10" t="s"/>
+      <c r="AP10" t="s"/>
+      <c r="AQ10" t="s"/>
+      <c r="AR10" t="s"/>
+      <c r="AS10" t="s"/>
+      <c r="AT10" t="s"/>
+      <c r="AU10" t="s"/>
     </row>
     <row customHeight="1" ht="12.8" r="1048576" s="10" spans="1:47"/>
   </sheetData>
@@ -2527,7 +2406,7 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="C1" activeCellId="1" pane="bottomRight" sqref="9:10 C1"/>
+      <selection activeCell="C1" activeCellId="1" pane="bottomRight" sqref="50:78 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -2543,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>44</v>
@@ -2569,7 +2448,7 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="F2" activeCellId="1" pane="bottomRight" sqref="9:10 F2"/>
+      <selection activeCell="F2" activeCellId="1" pane="bottomRight" sqref="50:78 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -2587,19 +2466,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="2" s="10" spans="1:6">
@@ -2607,7 +2486,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>1</v>
@@ -2619,7 +2498,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2521,7 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="G2" activeCellId="1" pane="bottomRight" sqref="9:10 G2"/>
+      <selection activeCell="G2" activeCellId="1" pane="bottomRight" sqref="50:78 G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -2660,22 +2539,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="2" s="10" spans="1:7">
@@ -2683,7 +2562,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>1</v>
@@ -2695,10 +2574,10 @@
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2721,7 +2600,7 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="C1" activeCellId="1" pane="bottomRight" sqref="9:10 C1"/>
+      <selection activeCell="C1" activeCellId="1" pane="bottomRight" sqref="50:78 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -2737,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>17</v>
@@ -2763,7 +2642,7 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="D1" activeCellId="1" pane="bottomRight" sqref="9:10 D1"/>
+      <selection activeCell="D1" activeCellId="1" pane="bottomRight" sqref="50:78 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -2780,13 +2659,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2809,7 +2688,7 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="K1" activeCellId="1" pane="bottomRight" sqref="9:10 K1"/>
+      <selection activeCell="K1" activeCellId="1" pane="bottomRight" sqref="50:78 K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -2831,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>11</v>
@@ -2846,19 +2725,19 @@
         <v>16</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2874,14 +2753,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B44" xSplit="1" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
-      <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="E49" activeCellId="1" pane="bottomRight" sqref="9:10 E49"/>
+      <selection activeCell="A44" activeCellId="0" pane="bottomLeft" sqref="A44"/>
+      <selection activeCell="B78" activeCellId="0" pane="bottomRight" sqref="50:78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -2896,16 +2775,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="2" s="10" spans="1:5">
@@ -2913,16 +2792,16 @@
         <v>71</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="3" s="10" spans="1:5">
@@ -2930,16 +2809,16 @@
         <v>71</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="4" s="10" spans="1:5">
@@ -2947,16 +2826,16 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="5" s="10" spans="1:5">
@@ -2964,16 +2843,16 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="6" s="10" spans="1:5">
@@ -2981,16 +2860,16 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="7" s="10" spans="1:5">
@@ -2998,16 +2877,16 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="8" s="10" spans="1:5">
@@ -3015,16 +2894,16 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="9" s="10" spans="1:5">
@@ -3032,16 +2911,16 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="10" s="10" spans="1:5">
@@ -3049,16 +2928,16 @@
         <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="11" s="10" spans="1:5">
@@ -3066,16 +2945,16 @@
         <v>71</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="12" s="10" spans="1:5">
@@ -3083,16 +2962,16 @@
         <v>72</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="13" s="10" spans="1:5">
@@ -3100,16 +2979,16 @@
         <v>72</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="14" s="10" spans="1:5">
@@ -3117,16 +2996,16 @@
         <v>72</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="15" s="10" spans="1:5">
@@ -3134,16 +3013,16 @@
         <v>72</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="16" s="10" spans="1:5">
@@ -3151,16 +3030,16 @@
         <v>72</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="17" s="10" spans="1:5">
@@ -3168,16 +3047,16 @@
         <v>72</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="18" s="10" spans="1:5">
@@ -3185,16 +3064,16 @@
         <v>72</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="19" s="10" spans="1:5">
@@ -3202,16 +3081,16 @@
         <v>72</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="20" s="10" spans="1:5">
@@ -3219,16 +3098,16 @@
         <v>72</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="21" s="10" spans="1:5">
@@ -3236,16 +3115,16 @@
         <v>72</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="22" s="10" spans="1:5">
@@ -3253,16 +3132,16 @@
         <v>72</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="23" s="10" spans="1:5">
@@ -3270,16 +3149,16 @@
         <v>72</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="24" s="10" spans="1:5">
@@ -3287,16 +3166,16 @@
         <v>73</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="25" s="10" spans="1:5">
@@ -3304,16 +3183,16 @@
         <v>73</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="26" s="10" spans="1:5">
@@ -3321,16 +3200,16 @@
         <v>73</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="27" s="10" spans="1:5">
@@ -3338,16 +3217,16 @@
         <v>73</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="28" s="10" spans="1:5">
@@ -3355,16 +3234,16 @@
         <v>73</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="29" s="10" spans="1:5">
@@ -3372,16 +3251,16 @@
         <v>73</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="30" s="10" spans="1:5">
@@ -3389,16 +3268,16 @@
         <v>73</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="31" s="10" spans="1:5">
@@ -3406,16 +3285,16 @@
         <v>73</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="32" s="10" spans="1:5">
@@ -3423,16 +3302,16 @@
         <v>73</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="33" s="10" spans="1:5">
@@ -3440,16 +3319,16 @@
         <v>73</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="34" s="10" spans="1:5">
@@ -3457,16 +3336,16 @@
         <v>73</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="35" s="10" spans="1:5">
@@ -3474,16 +3353,16 @@
         <v>74</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="36" s="10" spans="1:5">
@@ -3491,16 +3370,16 @@
         <v>74</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="37" s="10" spans="1:5">
@@ -3508,16 +3387,16 @@
         <v>74</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="38" s="10" spans="1:5">
@@ -3525,16 +3404,16 @@
         <v>74</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="39" s="10" spans="1:5">
@@ -3542,16 +3421,16 @@
         <v>74</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="40" s="10" spans="1:5">
@@ -3559,16 +3438,16 @@
         <v>74</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="41" s="10" spans="1:5">
@@ -3576,16 +3455,16 @@
         <v>74</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="42" s="10" spans="1:5">
@@ -3593,16 +3472,16 @@
         <v>74</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="43" s="10" spans="1:5">
@@ -3610,16 +3489,16 @@
         <v>74</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="44" s="10" spans="1:5">
@@ -3627,16 +3506,16 @@
         <v>74</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="45" s="10" spans="1:5">
@@ -3644,16 +3523,16 @@
         <v>74</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="46" s="10" spans="1:5">
@@ -3661,16 +3540,16 @@
         <v>76</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="47" s="10" spans="1:5">
@@ -3678,16 +3557,16 @@
         <v>76</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="48" s="10" spans="1:5">
@@ -3695,16 +3574,16 @@
         <v>76</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="49" s="10" spans="1:5">
@@ -3712,18 +3591,495 @@
         <v>76</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
+        <v>247</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="50" s="10" spans="1:5">
+      <c r="A50" t="n">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="51" s="10" spans="1:5">
+      <c r="A51" t="n">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="52" s="10" spans="1:5">
+      <c r="A52" t="n">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="53" s="10" spans="1:5">
+      <c r="A53" t="n">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="54" s="10" spans="1:5">
+      <c r="A54" t="n">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" t="s">
+        <v>254</v>
+      </c>
+      <c r="E54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="55" s="10" spans="1:5">
+      <c r="A55" t="n">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" t="s">
+        <v>248</v>
+      </c>
+      <c r="E55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="56" s="10" spans="1:5">
+      <c r="A56" t="n">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" t="s">
+        <v>257</v>
+      </c>
+      <c r="E56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="57" s="10" spans="1:5">
+      <c r="A57" t="n">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" t="s">
+        <v>259</v>
+      </c>
+      <c r="E57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="58" s="10" spans="1:5">
+      <c r="A58" t="n">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="59" s="10" spans="1:5">
+      <c r="A59" t="n">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" t="s">
+        <v>250</v>
+      </c>
+      <c r="E59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="60" s="10" spans="1:5">
+      <c r="A60" t="n">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" t="s">
+        <v>259</v>
+      </c>
+      <c r="E60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="61" s="10" spans="1:5">
+      <c r="A61" t="n">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" t="s">
+        <v>261</v>
+      </c>
+      <c r="E61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="62" s="10" spans="1:5">
+      <c r="A62" t="n">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" t="s">
+        <v>262</v>
+      </c>
+      <c r="E62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="63" s="10" spans="1:5">
+      <c r="A63" t="n">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" t="s">
+        <v>262</v>
+      </c>
+      <c r="E63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="64" s="10" spans="1:5">
+      <c r="A64" t="n">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" t="s">
+        <v>248</v>
+      </c>
+      <c r="E64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="65" s="10" spans="1:5">
+      <c r="A65" t="n">
+        <v>79</v>
+      </c>
+      <c r="B65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="66" s="10" spans="1:5">
+      <c r="A66" t="n">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="67" s="10" spans="1:5">
+      <c r="A67" t="n">
+        <v>79</v>
+      </c>
+      <c r="B67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" t="s">
+        <v>253</v>
+      </c>
+      <c r="E67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="68" s="10" spans="1:5">
+      <c r="A68" t="n">
+        <v>79</v>
+      </c>
+      <c r="B68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" t="s">
+        <v>254</v>
+      </c>
+      <c r="E68" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="69" s="10" spans="1:5">
+      <c r="A69" t="n">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69" t="s">
+        <v>248</v>
+      </c>
+      <c r="E69" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="70" s="10" spans="1:5">
+      <c r="A70" t="n">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" t="s">
+        <v>256</v>
+      </c>
+      <c r="D70" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="71" s="10" spans="1:5">
+      <c r="A71" t="n">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" t="s">
+        <v>258</v>
+      </c>
+      <c r="D71" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="72" s="10" spans="1:5">
+      <c r="A72" t="n">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" t="s">
+        <v>260</v>
+      </c>
+      <c r="D72" t="s">
+        <v>252</v>
+      </c>
+      <c r="E72" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="73" s="10" spans="1:5">
+      <c r="A73" t="n">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="74" s="10" spans="1:5">
+      <c r="A74" t="n">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" t="s">
+        <v>259</v>
+      </c>
+      <c r="E74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="75" s="10" spans="1:5">
+      <c r="A75" t="n">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" t="s">
+        <v>261</v>
+      </c>
+      <c r="E75" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="76" s="10" spans="1:5">
+      <c r="A76" t="n">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" t="s">
+        <v>262</v>
+      </c>
+      <c r="E76" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="77" s="10" spans="1:5">
+      <c r="A77" t="n">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" t="s">
+        <v>262</v>
+      </c>
+      <c r="E77" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="78" s="10" spans="1:5"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
@@ -3744,7 +4100,7 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="C4" activeCellId="1" pane="bottomRight" sqref="9:10 C4"/>
+      <selection activeCell="C4" activeCellId="1" pane="bottomRight" sqref="50:78 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -3759,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="2" s="10" spans="1:3">
@@ -3770,10 +4126,10 @@
         <v>71</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="3" s="10" spans="1:3">
@@ -3781,10 +4137,10 @@
         <v>73</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row customHeight="1" ht="13" r="4" s="10" spans="1:3">
@@ -3792,10 +4148,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
